--- a/RAGTesting/RAG测试问题简化版.xlsx
+++ b/RAGTesting/RAG测试问题简化版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28000" windowHeight="12560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -38,10 +38,10 @@
     <t>Answers</t>
   </si>
   <si>
-    <t>清华大学的世界排名是多少？</t>
-  </si>
-  <si>
-    <t>根据ARWU排名数据，清华大学排名世界前22。</t>
+    <t>清华大学的ARWU2024排名是多少？</t>
+  </si>
+  <si>
+    <t>根据ARWU2024排名数据，清华大学排名世界前22。</t>
   </si>
   <si>
     <t>美国排名前十的大学有哪些？</t>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>哈佛大学在ARWU排名中各项指标均衡发展，学术实力顶尖，全球第一。</t>
+  </si>
+  <si>
+    <t>University of Oxford的THE2025排名是多少？</t>
+  </si>
+  <si>
+    <t>根据THE2025排名数据，University of Oxford排名世界第1。</t>
   </si>
 </sst>
 </file>
@@ -1210,15 +1216,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="2" max="2" width="50.7980769230769" customWidth="1"/>
     <col min="3" max="3" width="197.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1288,6 +1294,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
